--- a/data/long_dif/P18_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_1-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,2%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>23,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>27,11%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,73; 42,59</t>
+          <t>24,71; 42,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 20,67</t>
+          <t>5,93; 20,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 20,69</t>
+          <t>8,19; 23,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 57,26</t>
+          <t>10,21; 30,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 27,51</t>
+          <t>7,69; 31,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,47; 31,14</t>
+          <t>38,69; 57,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>33,67; 46,69</t>
+          <t>11,82; 26,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,99; 21,1</t>
+          <t>17,19; 31,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,37</t>
+          <t>18,63; 37,69</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,41; 46,45</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 46,35</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 20,91</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 24,58</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,42; 30,83</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 34,27</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>58,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,29%</t>
+          <t>70,92%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,91%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>42,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>54,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>56,36%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50,54%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>58,54%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>62,8%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>58,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>57,35%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,11; 67,59</t>
+          <t>48,8; 67,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,98; 77,14</t>
+          <t>52,64; 74,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>62,35; 81,83</t>
+          <t>60,33; 79,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,11; 52,18</t>
+          <t>55,93; 79,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,82; 62,39</t>
+          <t>43,33; 74,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,01; 63,22</t>
+          <t>33,07; 50,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,46; 57,07</t>
+          <t>43,0; 60,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,93; 67,74</t>
+          <t>45,45; 63,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,9; 69,5</t>
+          <t>38,65; 58,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42,87; 69,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44,21; 56,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50,87; 65,66</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>55,98; 69,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>50,15; 66,83</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>45,58; 67,58</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,22%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18,41%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>18,6%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 15,28</t>
+          <t>4,53; 14,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,81; 29,74</t>
+          <t>14,33; 35,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 24,61</t>
+          <t>8,47; 22,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 16,53</t>
+          <t>5,21; 24,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 38,01</t>
+          <t>12,24; 39,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 30,36</t>
+          <t>5,55; 16,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,04; 13,58</t>
+          <t>21,13; 38,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,45; 30,36</t>
+          <t>15,63; 29,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 24,95</t>
+          <t>15,76; 33,97</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 22,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 13,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 33,84</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,42; 23,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,25; 25,59</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 29,2</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 37,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 12,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,72; 30,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 46,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 29,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 24,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,52; 38,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 18,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,17; 25,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,8%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>75,84%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>62,74%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,35; 79,7</t>
+          <t>16,36; 39,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,19; 83,83</t>
+          <t>3,25; 12,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,5; 73,3</t>
+          <t>14,58; 30,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,65; 62,83</t>
+          <t>7,63; 21,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,63; 67,6</t>
+          <t>7,95; 32,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,08; 66,12</t>
+          <t>29,27; 46,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,29; 69,88</t>
+          <t>14,08; 29,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,54; 74,34</t>
+          <t>12,99; 24,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>55,66; 68,58</t>
+          <t>21,24; 36,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,64; 35,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24,75; 38,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 18,46</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 25,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,37; 26,31</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 29,68</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>63,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>53,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>52,33%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>61,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68,03%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>61,31%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>52,4%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,4</t>
+          <t>56,03; 78,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,08; 25,58</t>
+          <t>66,97; 83,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 24,47</t>
+          <t>53,72; 73,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,82; 14,75</t>
+          <t>31,58; 67,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,03; 28,1</t>
+          <t>51,83; 85,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 29,97</t>
+          <t>44,79; 62,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,99</t>
+          <t>49,54; 67,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,88; 24,25</t>
+          <t>50,82; 65,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 23,83</t>
+          <t>44,25; 62,47</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>41,92; 63,55</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 68,92</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>61,71; 74,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>55,19; 67,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>39,34; 61,21</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>52,0; 73,72</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>34,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>34,13%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27,05%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,07; 42,15</t>
+          <t>2,22; 10,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 19,86</t>
+          <t>10,6; 25,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,53; 25,29</t>
+          <t>9,01; 25,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>32,39; 46,06</t>
+          <t>18,06; 59,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 20,48</t>
+          <t>2,4; 28,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 26,84</t>
+          <t>4,09; 13,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>28,27; 40,92</t>
+          <t>14,36; 28,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 18,91</t>
+          <t>17,23; 29,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,35; 23,37</t>
+          <t>11,57; 28,12</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 32,44</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 10,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 24,2</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 23,99</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>16,84; 43,95</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>10,47; 26,74</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>65,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>46,49; 68,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,69; 77,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>64,47; 80,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39,39; 52,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,22; 67,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,47; 63,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,78; 59,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,47; 69,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,09; 70,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>24,76%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33,3%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13,76%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,4; 22,76</t>
+          <t>21,96; 40,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,08; 31,61</t>
+          <t>7,77; 17,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,01</t>
+          <t>8,69; 23,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,11; 20,22</t>
+          <t>5,99; 17,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,39; 29,59</t>
+          <t>12,89; 29,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,93; 26,54</t>
+          <t>31,31; 44,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,37; 19,41</t>
+          <t>11,17; 20,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,46; 27,11</t>
+          <t>17,33; 27,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,92; 20,12</t>
+          <t>19,3; 31,22</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 20,86</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28,02; 39,47</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 17,52</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>14,22; 22,53</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 22,54</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 22,56</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>57,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,27%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>47,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>60,71%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>65,69%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>52,41%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>65,56%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>66,47%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>66,06%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>61,17%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16,1; 26,82</t>
+          <t>47,47; 66,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,93; 12,12</t>
+          <t>57,58; 77,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,47; 21,83</t>
+          <t>66,84; 82,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,96; 36,42</t>
+          <t>64,71; 79,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,78</t>
+          <t>46,94; 67,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>16,94; 25,87</t>
+          <t>39,82; 52,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>22,25; 30,3</t>
+          <t>55,12; 67,67</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,69</t>
+          <t>51,13; 62,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,59; 22,13</t>
+          <t>54,26; 67,94</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>55,13; 74,15</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>46,27; 57,8</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>59,13; 70,68</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>61,74; 71,12</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>61,19; 71,33</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>54,51; 68,25</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>13,15%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>73,84%</t>
+          <t>17,85%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69,9%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>65,73%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>62,86%</t>
+          <t>14,54%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20,69%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>61,3; 73,98</t>
+          <t>7,57; 22,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>67,56; 80,08</t>
+          <t>10,83; 33,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>63,15; 75,82</t>
+          <t>6,48; 14,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>48,49; 61,21</t>
+          <t>11,74; 23,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>52,01; 64,73</t>
+          <t>15,25; 32,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>50,99; 61,85</t>
+          <t>11,37; 21,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>56,63; 66,01</t>
+          <t>18,23; 29,22</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>61,03; 70,68</t>
+          <t>17,21; 26,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,81</t>
+          <t>10,46; 19,34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 30,21</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>10,51; 19,56</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 27,55</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>12,59; 19,16</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 19,5</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 27,85</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,28; 15,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,43; 23,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,05; 19,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>10,3; 19,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,79; 31,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,12; 28,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>17,9; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>15,29; 22,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>18,8%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>21,45%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>19,03%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>15,48; 31,46</t>
+          <t>15,9; 26,72</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,51</t>
+          <t>4,74; 12,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,15; 17,15</t>
+          <t>11,63; 22,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>21,86; 37,1</t>
+          <t>11,85; 37,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,58; 25,82</t>
+          <t>11,83; 32,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,39; 27,79</t>
+          <t>24,59; 36,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,97; 31,58</t>
+          <t>12,29; 21,72</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,85; 21,18</t>
+          <t>16,84; 26,6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>13,56; 20,85</t>
+          <t>17,04; 29,16</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 31,39</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 30,54</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 15,95</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 22,32</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>16,51; 29,94</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 29,58</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>67,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>69,04%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>59,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>57,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>62,09%</t>
+          <t>55,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>55,11%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>56,19%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>60,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>65,31%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>62,19%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>61,54%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>57,96%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>59,54; 76,2</t>
+          <t>61,68; 74,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>61,52; 76,15</t>
+          <t>65,44; 79,08</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>64,94; 77,3</t>
+          <t>63,27; 75,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>45,78; 62,3</t>
+          <t>54,37; 75,81</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>46,2; 62,51</t>
+          <t>46,85; 70,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>48,98; 62,88</t>
+          <t>47,75; 60,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>55,12; 66,27</t>
+          <t>51,85; 64,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>56,36; 67,53</t>
+          <t>49,26; 61,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>58,65; 68,06</t>
+          <t>48,48; 62,14</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>47,67; 65,28</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>56,34; 65,56</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>60,67; 70,14</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>58,19; 66,49</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>54,29; 66,39</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>50,51; 64,85</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,74; 13,77</t>
+          <t>7,14; 15,39</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>11,02; 22,76</t>
+          <t>13,58; 26,0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,24; 22,74</t>
+          <t>10,22; 19,03</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>11,37; 23,14</t>
+          <t>8,24; 18,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,6; 33,87</t>
+          <t>12,82; 29,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>16,94; 28,12</t>
+          <t>10,94; 19,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,21</t>
+          <t>19,51; 30,85</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>16,61; 25,87</t>
+          <t>18,46; 28,34</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>15,83; 23,41</t>
+          <t>16,76; 27,4</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 28,19</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 16,25</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 25,92</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>15,61; 22,25</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 21,87</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 26,71</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>10,89; 23,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>5,4; 26,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>12,98; 28,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,35; 28,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>16,27; 33,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>18,91; 37,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,27; 25,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>13,58; 27,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>17,49; 30,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>65,02%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>62,93%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>59,81%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>55,52%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>18,2%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>25,84%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>64,48; 80,7</t>
+          <t>15,62; 30,55</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>47,78; 77,09</t>
+          <t>9,6; 20,42</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>52,49; 72,09</t>
+          <t>8,01; 17,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>51,22; 68,0</t>
+          <t>12,57; 26,23</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>38,54; 57,65</t>
+          <t>9,11; 25,84</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>37,18; 53,88</t>
+          <t>22,86; 37,05</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>58,62; 70,92</t>
+          <t>13,22; 26,36</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>45,81; 62,67</t>
+          <t>16,27; 27,3</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>45,87; 58,88</t>
+          <t>18,01; 33,26</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>11,99; 26,03</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>21,11; 31,38</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 21,36</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 20,82</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 26,88</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>12,04; 22,77</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>68,13%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>70,51%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>54,71%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>55,83%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>58,69%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>53,16%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>61,13%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>61,89%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>63,5%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>64,55%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>59,98%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>5,67; 17,16</t>
+          <t>59,15; 75,56</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,23; 43,89</t>
+          <t>61,36; 76,08</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,46; 26,42</t>
+          <t>64,0; 76,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>13,18; 26,3</t>
+          <t>60,99; 78,09</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,95; 39,51</t>
+          <t>57,21; 77,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>21,48; 36,23</t>
+          <t>46,97; 61,75</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,18</t>
+          <t>45,9; 62,8</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>17,54; 34,62</t>
+          <t>50,03; 62,42</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>19,19; 29,66</t>
+          <t>49,4; 66,74</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>44,34; 62,0</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 66,61</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>56,54; 67,12</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>59,37; 68,06</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>57,98; 70,56</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>53,03; 66,4</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>33,35%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>28,64%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>21,33; 28,51</t>
+          <t>5,92; 15,45</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,0</t>
+          <t>11,65; 23,91</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,23</t>
+          <t>12,46; 22,5</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>30,39; 36,28</t>
+          <t>6,71; 18,27</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>16,58; 21,78</t>
+          <t>9,92; 26,59</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,87</t>
+          <t>10,64; 21,68</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>26,83; 31,77</t>
+          <t>19,29; 33,67</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,18</t>
+          <t>16,99; 28,42</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,27</t>
+          <t>11,1; 24,2</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 37,39</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 16,93</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>17,17; 26,78</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 23,53</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 19,04</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 29,34</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>70,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>69,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>52,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>55,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>54,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>61,69; 69,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>66,04; 74,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>65,94; 72,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>49,47; 55,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>52,36; 59,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>51,22; 57,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>56,22; 61,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>60,15; 65,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>59,31; 64,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>15,97%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>7,76; 12,08</t>
+          <t>11,82; 25,62</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>15,67; 23,27</t>
+          <t>5,74; 23,62</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>12,11; 17,35</t>
+          <t>12,1; 28,49</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,44</t>
+          <t>3,03; 14,6</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>22,34; 28,43</t>
+          <t>7,63; 25,92</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,02</t>
+          <t>16,48; 28,5</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>10,49; 13,64</t>
+          <t>17,64; 34,43</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>19,55; 24,41</t>
+          <t>17,72; 33,07</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>17,3; 20,87</t>
+          <t>23,96; 44,93</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>8,85; 26,25</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 25,11</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>13,85; 26,4</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 27,68</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 28,99</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 21,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>72,4%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>67,47%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>64,29%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>84,46%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>76,5%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>56,47%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>46,95%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>55,65%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>63,21%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>64,06; 80,5</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>52,92; 77,01</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>55,68; 72,09</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>75,35; 91,06</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 84,99</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>47,06; 63,9</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>40,1; 57,63</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>39,47; 55,15</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>35,54; 57,26</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>40,14; 67,66</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>56,54; 69,22</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>49,61; 63,5</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>47,72; 60,53</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>55,5; 70,85</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>55,16; 73,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>20,91%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>17,17%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>21,92%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>25,89%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>28,39%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>20,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 15,58</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 37,25</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>10,96; 24,56</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 15,46</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 17,05</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 31,66</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 35,04</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 36,88</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>13,37; 28,78</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>16,68; 41,87</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 22,56</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 32,74</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>19,22; 29,26</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>10,31; 20,86</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>13,22; 30,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>21,57; 28,71</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 13,27</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>13,56; 19,1</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 18,43</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 22,07</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>30,21; 36,25</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 22,31</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 24,8</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>23,59; 30,5</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 24,03</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 31,48</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 16,75</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 20,79</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>18,54; 23,29</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 21,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>70,28%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>68,71%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>64,6%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>51,73%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>55,8%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>54,59%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>54,14%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>56,73%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>58,41%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>62,89%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>61,86%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>61,26%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>60,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 68,95</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>66,05; 73,92</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>66,09; 72,75</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>61,74; 73,12</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>58,89; 70,01</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>48,62; 54,88</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>52,48; 58,95</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>51,73; 57,37</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>50,67; 57,96</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>51,58; 61,46</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>56,07; 60,9</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 65,48</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>59,51; 63,98</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>57,52; 63,91</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>56,97; 64,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>12,43%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>22,12%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>19,08%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>7,8; 12,53</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>15,83; 23,21</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 16,93</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 24,43</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 22,04</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>12,94; 17,89</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>22,08; 27,8</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>21,38; 26,29</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 22,13</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 26,97</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>10,83; 14,18</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 24,56</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 21,08</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 21,91</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>17,55; 23,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_1-Edad-long_dif.xlsx
+++ b/data/long_dif/P18_1-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1801,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1960,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2282,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2441,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2763,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2922,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -3244,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3403,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3725,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3884,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
